--- a/Desarrollo/Desarrollo/STGRHPBI-DDD.xlsx
+++ b/Desarrollo/Desarrollo/STGRHPBI-DDD.xlsx
@@ -839,7 +839,7 @@
     <t>130ZB2</t>
   </si>
   <si>
-    <t>Número de días a la semana que el hogar tiene acceso al servicio de agua potable (entre 0 y 7 días)</t>
+    <t xml:space="preserve">Número de horas al día a la semana que el hogar tiene acceso al servicio de agua potable </t>
   </si>
   <si>
     <t>142A</t>
